--- a/design/剧情流程.xlsx
+++ b/design/剧情流程.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>流程分支</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,10 @@
     <t>啊啊啊啊
 一段对话最多4行
 属于一段对话的同一个单元格写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氛围装饰描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,61 +239,71 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="152400" y="495300"/>
-          <a:ext cx="5495925" cy="17468850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -556,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E24:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -588,120 +602,125 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>123</v>
-      </c>
-      <c r="C10">
-        <v>123123</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>123</v>
+      </c>
+      <c r="C11">
+        <v>123123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1231</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1213213123</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
@@ -713,11 +732,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -735,5 +754,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>79</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
--- a/design/剧情流程.xlsx
+++ b/design/剧情流程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="2" r:id="rId1"/>
@@ -239,71 +239,61 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>79</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="66675" y="400050"/>
+          <a:ext cx="7000875" cy="13601700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -572,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -732,11 +722,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -754,33 +744,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>79</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>